--- a/Code/Results/Cases/Case_1_128/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_128/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4.681791075896535</v>
+        <v>4.419420547413259</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>5.753780626769985</v>
+        <v>6.836331367955746</v>
       </c>
       <c r="E2">
-        <v>30.06498354496464</v>
+        <v>16.34318627713774</v>
       </c>
       <c r="F2">
-        <v>46.2875027721016</v>
+        <v>39.08880397238646</v>
       </c>
       <c r="G2">
-        <v>2.045937491716227</v>
+        <v>3.663932796302124</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>21.47440036560949</v>
+        <v>23.69124698385301</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>23.13248981190396</v>
+        <v>15.63710161176168</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>4.560764956924572</v>
+        <v>4.411282428249164</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>5.663029348219291</v>
+        <v>6.820337719359035</v>
       </c>
       <c r="E3">
-        <v>27.73237668499554</v>
+        <v>15.41977829608477</v>
       </c>
       <c r="F3">
-        <v>43.61574182003895</v>
+        <v>38.3838525370019</v>
       </c>
       <c r="G3">
-        <v>2.061263755105811</v>
+        <v>3.668712872757238</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>20.99070058720262</v>
+        <v>23.58631559592771</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>21.41664289376368</v>
+        <v>15.18622839472495</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4.481182750035169</v>
+        <v>4.40770415605968</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>5.611959233359619</v>
+        <v>6.811338030866946</v>
       </c>
       <c r="E4">
-        <v>26.25169873589027</v>
+        <v>14.82996885745559</v>
       </c>
       <c r="F4">
-        <v>41.95668091531445</v>
+        <v>37.9553529045369</v>
       </c>
       <c r="G4">
-        <v>2.070754272039623</v>
+        <v>3.671790731665832</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>20.70353077100432</v>
+        <v>23.5242663693759</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>20.31988394733416</v>
+        <v>14.90901789620638</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4.44748916904273</v>
+        <v>4.406607896379041</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>5.592209135476097</v>
+        <v>6.807875731986678</v>
       </c>
       <c r="E5">
-        <v>25.6352291299688</v>
+        <v>14.58414972551237</v>
       </c>
       <c r="F5">
-        <v>41.27597128826887</v>
+        <v>37.78203837576969</v>
       </c>
       <c r="G5">
-        <v>2.074649649944933</v>
+        <v>3.673081088138693</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>20.58882947435562</v>
+        <v>23.49958353029885</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>19.86159632959147</v>
+        <v>14.79616008649377</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>4.441819852802691</v>
+        <v>4.406447867465733</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>5.588990791642467</v>
+        <v>6.80731317312708</v>
       </c>
       <c r="E6">
-        <v>25.53205064875195</v>
+        <v>14.54301052625733</v>
       </c>
       <c r="F6">
-        <v>41.16266602286311</v>
+        <v>37.75334442105089</v>
       </c>
       <c r="G6">
-        <v>2.075298368966703</v>
+        <v>3.673297536628231</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>20.5699197343208</v>
+        <v>23.49552148156157</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>19.78479951844604</v>
+        <v>14.77743269300011</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4.480733380913518</v>
+        <v>4.407687899504357</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>5.611688714249588</v>
+        <v>6.811290508110159</v>
       </c>
       <c r="E7">
-        <v>26.24343888100995</v>
+        <v>14.82667538861879</v>
       </c>
       <c r="F7">
-        <v>41.94751914626075</v>
+        <v>37.95300997319097</v>
       </c>
       <c r="G7">
-        <v>2.070806683891103</v>
+        <v>3.671807987444707</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>20.70197464589118</v>
+        <v>23.52393104223736</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>20.31374986973946</v>
+        <v>14.90749514761629</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4.641194035538732</v>
+        <v>4.416323329831891</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>5.721455267819127</v>
+        <v>6.830645805779064</v>
       </c>
       <c r="E8">
-        <v>29.27017580765514</v>
+        <v>16.0296832317659</v>
       </c>
       <c r="F8">
-        <v>45.37009260300753</v>
+        <v>38.84496168865904</v>
       </c>
       <c r="G8">
-        <v>2.051210363548702</v>
+        <v>3.665551420691172</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>21.30548625501764</v>
+        <v>23.65457578452222</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>22.54952841695547</v>
+        <v>15.48183583021356</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.910991832450014</v>
+        <v>4.444267487759928</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>5.979236962582108</v>
+        <v>6.875159080456676</v>
       </c>
       <c r="E9">
-        <v>34.86948703385032</v>
+        <v>18.23741248690471</v>
       </c>
       <c r="F9">
-        <v>51.94567418530305</v>
+        <v>40.6193032943863</v>
       </c>
       <c r="G9">
-        <v>2.013002501768312</v>
+        <v>3.654407813508791</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>22.57499686838076</v>
+        <v>23.9294207382217</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>26.61626097165099</v>
+        <v>16.59681288681447</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.077045433099125</v>
+        <v>4.47115760396898</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>6.20398266786229</v>
+        <v>6.911919033541094</v>
       </c>
       <c r="E10">
-        <v>38.86212931664703</v>
+        <v>19.88179303399366</v>
       </c>
       <c r="F10">
-        <v>56.73235604765406</v>
+        <v>41.92608975985789</v>
       </c>
       <c r="G10">
-        <v>1.984353109216674</v>
+        <v>3.646895313483844</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>23.57459170348103</v>
+        <v>24.14237779743867</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>29.45324607477649</v>
+        <v>17.39873479435061</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.144258669114679</v>
+        <v>4.484690186219558</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>6.31665955983483</v>
+        <v>6.92953231875834</v>
       </c>
       <c r="E11">
-        <v>40.67753484649477</v>
+        <v>20.58903507246299</v>
       </c>
       <c r="F11">
-        <v>59.00203797976279</v>
+        <v>42.51877656181893</v>
       </c>
       <c r="G11">
-        <v>1.970982414971698</v>
+        <v>3.643621721146215</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>24.04837282502409</v>
+        <v>24.2415643997835</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>30.72362665740719</v>
+        <v>17.75786821657916</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.168367664483753</v>
+        <v>4.489994386205242</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>6.361133319478546</v>
+        <v>6.936330583338708</v>
       </c>
       <c r="E12">
-        <v>41.36772278455494</v>
+        <v>20.85102546124868</v>
       </c>
       <c r="F12">
-        <v>59.87806221938642</v>
+        <v>42.74275709660142</v>
       </c>
       <c r="G12">
-        <v>1.965847208261466</v>
+        <v>3.642402593413872</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>24.23104044190518</v>
+        <v>24.27944733455672</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>31.20315770162108</v>
+        <v>17.89290508107472</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.163237831447636</v>
+        <v>4.488844157273171</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>6.351469056356317</v>
+        <v>6.934860736219848</v>
       </c>
       <c r="E13">
-        <v>41.21890240735894</v>
+        <v>20.79485966584222</v>
       </c>
       <c r="F13">
-        <v>59.689297731546</v>
+        <v>42.69454232697476</v>
       </c>
       <c r="G13">
-        <v>1.966956811142973</v>
+        <v>3.642664245030211</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>24.19154494820384</v>
+        <v>24.27127434997344</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>31.09992469551828</v>
+        <v>17.86386729391852</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.146270020089956</v>
+        <v>4.485123006728779</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>6.320280220237276</v>
+        <v>6.930089039243112</v>
       </c>
       <c r="E14">
-        <v>40.73424292514757</v>
+        <v>20.61070573188105</v>
       </c>
       <c r="F14">
-        <v>59.07406945103383</v>
+        <v>42.53721385978516</v>
       </c>
       <c r="G14">
-        <v>1.970561538345958</v>
+        <v>3.643521012740805</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>24.06333221627499</v>
+        <v>24.24467463110227</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>30.76309960850848</v>
+        <v>17.76899778395051</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.135696859359031</v>
+        <v>4.482866878356711</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>6.30142170712322</v>
+        <v>6.927182979438006</v>
       </c>
       <c r="E15">
-        <v>40.43782968137868</v>
+        <v>20.49714847529762</v>
       </c>
       <c r="F15">
-        <v>58.69746032730513</v>
+        <v>42.44078026881547</v>
       </c>
       <c r="G15">
-        <v>1.972759358137721</v>
+        <v>3.644048473454911</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>23.98524029771857</v>
+        <v>24.22842332946034</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>30.55663129353677</v>
+        <v>17.7107584977106</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.072473677134705</v>
+        <v>4.470298765143369</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>6.196853276055777</v>
+        <v>6.910785928282287</v>
       </c>
       <c r="E16">
-        <v>38.74369748708608</v>
+        <v>19.83475557826926</v>
       </c>
       <c r="F16">
-        <v>56.58990862435974</v>
+        <v>41.88730310190893</v>
       </c>
       <c r="G16">
-        <v>1.985218248515205</v>
+        <v>3.64711213039298</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>23.54405333613411</v>
+        <v>24.1359414545756</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>29.36992685029314</v>
+        <v>17.37513792209304</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.031462675517482</v>
+        <v>4.462916543587588</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>6.135570615028824</v>
+        <v>6.900955386835804</v>
       </c>
       <c r="E17">
-        <v>37.70597846167287</v>
+        <v>19.41797851724328</v>
       </c>
       <c r="F17">
-        <v>55.34247249864189</v>
+        <v>41.54716159417332</v>
       </c>
       <c r="G17">
-        <v>1.99275995972916</v>
+        <v>3.649028308842142</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>23.27860417801314</v>
+        <v>24.07979244531262</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>28.63762409585507</v>
+        <v>17.16768750111224</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.007101055980082</v>
+        <v>4.45879330924845</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>6.101282966750414</v>
+        <v>6.89538497198038</v>
       </c>
       <c r="E18">
-        <v>37.10881897928007</v>
+        <v>19.17441720988512</v>
       </c>
       <c r="F18">
-        <v>54.62545339659491</v>
+        <v>41.35136550099159</v>
       </c>
       <c r="G18">
-        <v>1.997067642178766</v>
+        <v>3.650143997596684</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>23.12768072369122</v>
+        <v>24.04771517433131</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>28.21442497709938</v>
+        <v>17.04784208053309</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.998723732460618</v>
+        <v>4.457418565337323</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>6.089830682152645</v>
+        <v>6.893513313163408</v>
       </c>
       <c r="E19">
-        <v>36.90650625273505</v>
+        <v>19.0912904385633</v>
       </c>
       <c r="F19">
-        <v>54.38271280566741</v>
+        <v>41.28505184758232</v>
       </c>
       <c r="G19">
-        <v>1.998521597469025</v>
+        <v>3.650524083929211</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>23.07686879460816</v>
+        <v>24.03689210066756</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>28.07075757505257</v>
+        <v>17.00717886474928</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.035909333545976</v>
+        <v>4.46368973364733</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>6.141992891701559</v>
+        <v>6.901993183165445</v>
       </c>
       <c r="E20">
-        <v>37.81645730389148</v>
+        <v>19.46274251035256</v>
       </c>
       <c r="F20">
-        <v>55.47520258531069</v>
+        <v>41.58338783949183</v>
       </c>
       <c r="G20">
-        <v>1.991960398730871</v>
+        <v>3.648822926927498</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>23.30667669332459</v>
+        <v>24.08574709002179</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>28.71577692716373</v>
+        <v>17.18982642225953</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.151291681256782</v>
+        <v>4.486211180619962</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>6.329389300668671</v>
+        <v>6.931487112761281</v>
       </c>
       <c r="E21">
-        <v>40.87649809313367</v>
+        <v>20.66495403058932</v>
       </c>
       <c r="F21">
-        <v>59.25472275224819</v>
+        <v>42.58343901303962</v>
       </c>
       <c r="G21">
-        <v>1.969504915056886</v>
+        <v>3.643268804075464</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>24.1008981264094</v>
+        <v>24.2524789208376</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>30.86206226762412</v>
+        <v>17.79689037547132</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.218773716854386</v>
+        <v>4.501974189432904</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>6.462594817951553</v>
+        <v>6.951512138919084</v>
       </c>
       <c r="E22">
-        <v>42.894332671211</v>
+        <v>21.4167238387344</v>
       </c>
       <c r="F22">
-        <v>61.80979255289378</v>
+        <v>43.23427880488854</v>
       </c>
       <c r="G22">
-        <v>1.954393308282537</v>
+        <v>3.63975833159647</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>24.63931475824838</v>
+        <v>24.36332646942407</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>32.25675994626224</v>
+        <v>18.18799339927259</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.183541381759617</v>
+        <v>4.493468106653324</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>6.390394818669316</v>
+        <v>6.940755784592127</v>
       </c>
       <c r="E23">
-        <v>41.81455966797159</v>
+        <v>21.01858309254999</v>
       </c>
       <c r="F23">
-        <v>60.44438153130125</v>
+        <v>42.88722942174376</v>
       </c>
       <c r="G23">
-        <v>1.962508022865961</v>
+        <v>3.641621064975943</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>24.34996755055901</v>
+        <v>24.30399637043971</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>31.51256551729705</v>
+        <v>17.97981546751313</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.033901430471486</v>
+        <v>4.463339797287854</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>6.139086460098151</v>
+        <v>6.901523742261023</v>
       </c>
       <c r="E24">
-        <v>37.76651177068604</v>
+        <v>19.44251701736302</v>
       </c>
       <c r="F24">
-        <v>55.41519499470049</v>
+        <v>41.5670106992529</v>
       </c>
       <c r="G24">
-        <v>1.992321966252736</v>
+        <v>3.648915736307393</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>23.29397989190766</v>
+        <v>24.08305436046597</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>28.68045094701909</v>
+        <v>17.17981920962569</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.843262187198984</v>
+        <v>4.435564323666022</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>5.904077803285595</v>
+        <v>6.862408383266469</v>
       </c>
       <c r="E25">
-        <v>33.38311571853745</v>
+        <v>17.63300241715513</v>
       </c>
       <c r="F25">
-        <v>50.1786336225404</v>
+        <v>40.1378710247814</v>
       </c>
       <c r="G25">
-        <v>2.023380187390569</v>
+        <v>3.657303141046314</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>22.22105965424209</v>
+        <v>23.85310337205034</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>25.5461690121917</v>
+        <v>16.29751028732146</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_128/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_128/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4.419420547413259</v>
+        <v>4.681791075896476</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>6.836331367955746</v>
+        <v>5.753780626769959</v>
       </c>
       <c r="E2">
-        <v>16.34318627713774</v>
+        <v>30.06498354496462</v>
       </c>
       <c r="F2">
-        <v>39.08880397238646</v>
+        <v>46.28750277210166</v>
       </c>
       <c r="G2">
-        <v>3.663932796302124</v>
+        <v>2.045937491716352</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>23.69124698385301</v>
+        <v>21.47440036560949</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>15.63710161176168</v>
+        <v>23.13248981190405</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>4.411282428249164</v>
+        <v>4.560764956924798</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>6.820337719359035</v>
+        <v>5.663029348219198</v>
       </c>
       <c r="E3">
-        <v>15.41977829608477</v>
+        <v>27.73237668499551</v>
       </c>
       <c r="F3">
-        <v>38.3838525370019</v>
+        <v>43.615741820039</v>
       </c>
       <c r="G3">
-        <v>3.668712872757238</v>
+        <v>2.061263755105946</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>23.58631559592771</v>
+        <v>20.99070058720246</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>15.18622839472495</v>
+        <v>21.4166428937638</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4.40770415605968</v>
+        <v>4.481182750035229</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>6.811338030866946</v>
+        <v>5.611959233359688</v>
       </c>
       <c r="E4">
-        <v>14.82996885745559</v>
+        <v>26.25169873589032</v>
       </c>
       <c r="F4">
-        <v>37.9553529045369</v>
+        <v>41.95668091531443</v>
       </c>
       <c r="G4">
-        <v>3.671790731665832</v>
+        <v>2.070754272039616</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>23.5242663693759</v>
+        <v>20.70353077100426</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>14.90901789620638</v>
+        <v>20.31988394733419</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4.406607896379041</v>
+        <v>4.447489169042673</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>6.807875731986678</v>
+        <v>5.592209135476127</v>
       </c>
       <c r="E5">
-        <v>14.58414972551237</v>
+        <v>25.63522912996887</v>
       </c>
       <c r="F5">
-        <v>37.78203837576969</v>
+        <v>41.2759712882689</v>
       </c>
       <c r="G5">
-        <v>3.673081088138693</v>
+        <v>2.074649649944804</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>23.49958353029885</v>
+        <v>20.58882947435567</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>14.79616008649377</v>
+        <v>19.86159632959145</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>4.406447867465733</v>
+        <v>4.441819852802571</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>6.80731317312708</v>
+        <v>5.588990791642537</v>
       </c>
       <c r="E6">
-        <v>14.54301052625733</v>
+        <v>25.53205064875194</v>
       </c>
       <c r="F6">
-        <v>37.75334442105089</v>
+        <v>41.16266602286314</v>
       </c>
       <c r="G6">
-        <v>3.673297536628231</v>
+        <v>2.075298368966703</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>23.49552148156157</v>
+        <v>20.5699197343209</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>14.77743269300011</v>
+        <v>19.78479951844603</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4.407687899504357</v>
+        <v>4.480733380913459</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>6.811290508110159</v>
+        <v>5.611688714249681</v>
       </c>
       <c r="E7">
-        <v>14.82667538861879</v>
+        <v>26.24343888100989</v>
       </c>
       <c r="F7">
-        <v>37.95300997319097</v>
+        <v>41.9475191462608</v>
       </c>
       <c r="G7">
-        <v>3.671807987444707</v>
+        <v>2.070806683891371</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>23.52393104223736</v>
+        <v>20.7019746458912</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>14.90749514761629</v>
+        <v>20.31374986973936</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4.416323329831891</v>
+        <v>4.641194035538732</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>6.830645805779064</v>
+        <v>5.721455267819133</v>
       </c>
       <c r="E8">
-        <v>16.0296832317659</v>
+        <v>29.27017580765506</v>
       </c>
       <c r="F8">
-        <v>38.84496168865904</v>
+        <v>45.37009260300751</v>
       </c>
       <c r="G8">
-        <v>3.665551420691172</v>
+        <v>2.051210363548568</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>23.65457578452222</v>
+        <v>21.30548625501759</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>15.48183583021356</v>
+        <v>22.54952841695551</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.444267487759928</v>
+        <v>4.910991832449936</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>6.875159080456676</v>
+        <v>5.979236962582044</v>
       </c>
       <c r="E9">
-        <v>18.23741248690471</v>
+        <v>34.86948703385039</v>
       </c>
       <c r="F9">
-        <v>40.6193032943863</v>
+        <v>51.94567418530328</v>
       </c>
       <c r="G9">
-        <v>3.654407813508791</v>
+        <v>2.013002501768311</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>23.9294207382217</v>
+        <v>22.57499686838086</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>16.59681288681447</v>
+        <v>26.61626097165103</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.47115760396898</v>
+        <v>5.077045433099004</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>6.911919033541094</v>
+        <v>6.203982667862281</v>
       </c>
       <c r="E10">
-        <v>19.88179303399366</v>
+        <v>38.86212931664716</v>
       </c>
       <c r="F10">
-        <v>41.92608975985789</v>
+        <v>56.73235604765424</v>
       </c>
       <c r="G10">
-        <v>3.646895313483844</v>
+        <v>1.984353109216674</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>24.14237779743867</v>
+        <v>23.57459170348107</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>17.39873479435061</v>
+        <v>29.45324607477654</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.484690186219558</v>
+        <v>5.144258669114679</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>6.92953231875834</v>
+        <v>6.316659559834791</v>
       </c>
       <c r="E11">
-        <v>20.58903507246299</v>
+        <v>40.67753484649479</v>
       </c>
       <c r="F11">
-        <v>42.51877656181893</v>
+        <v>59.00203797976275</v>
       </c>
       <c r="G11">
-        <v>3.643621721146215</v>
+        <v>1.970982414971692</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>24.2415643997835</v>
+        <v>24.04837282502409</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>17.75786821657916</v>
+        <v>30.7236266574072</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.489994386205242</v>
+        <v>5.16836766448359</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>6.936330583338708</v>
+        <v>6.361133319478548</v>
       </c>
       <c r="E12">
-        <v>20.85102546124868</v>
+        <v>41.36772278455492</v>
       </c>
       <c r="F12">
-        <v>42.74275709660142</v>
+        <v>59.87806221938637</v>
       </c>
       <c r="G12">
-        <v>3.642402593413872</v>
+        <v>1.965847208261466</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>24.27944733455672</v>
+        <v>24.23104044190518</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>17.89290508107472</v>
+        <v>31.20315770162107</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.488844157273171</v>
+        <v>5.163237831447473</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>6.934860736219848</v>
+        <v>6.351469056356406</v>
       </c>
       <c r="E13">
-        <v>20.79485966584222</v>
+        <v>41.21890240735899</v>
       </c>
       <c r="F13">
-        <v>42.69454232697476</v>
+        <v>59.68929773154619</v>
       </c>
       <c r="G13">
-        <v>3.642664245030211</v>
+        <v>1.966956811142838</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>24.27127434997344</v>
+        <v>24.19154494820389</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>17.86386729391852</v>
+        <v>31.0999246955184</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.485123006728779</v>
+        <v>5.146270020089901</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>6.930089039243112</v>
+        <v>6.320280220237254</v>
       </c>
       <c r="E14">
-        <v>20.61070573188105</v>
+        <v>40.73424292514768</v>
       </c>
       <c r="F14">
-        <v>42.53721385978516</v>
+        <v>59.07406945103394</v>
       </c>
       <c r="G14">
-        <v>3.643521012740805</v>
+        <v>1.970561538345957</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>24.24467463110227</v>
+        <v>24.06333221627497</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>17.76899778395051</v>
+        <v>30.76309960850852</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.482866878356711</v>
+        <v>5.135696859358921</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>6.927182979438006</v>
+        <v>6.301421707123274</v>
       </c>
       <c r="E15">
-        <v>20.49714847529762</v>
+        <v>40.43782968137869</v>
       </c>
       <c r="F15">
-        <v>42.44078026881547</v>
+        <v>58.69746032730512</v>
       </c>
       <c r="G15">
-        <v>3.644048473454911</v>
+        <v>1.972759358137714</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>24.22842332946034</v>
+        <v>23.98524029771854</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>17.7107584977106</v>
+        <v>30.55663129353672</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.470298765143369</v>
+        <v>5.072473677134794</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>6.910785928282287</v>
+        <v>6.196853276055793</v>
       </c>
       <c r="E16">
-        <v>19.83475557826926</v>
+        <v>38.74369748708625</v>
       </c>
       <c r="F16">
-        <v>41.88730310190893</v>
+        <v>56.58990862435989</v>
       </c>
       <c r="G16">
-        <v>3.64711213039298</v>
+        <v>1.985218248515211</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>24.1359414545756</v>
+        <v>23.54405333613412</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>17.37513792209304</v>
+        <v>29.36992685029317</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.462916543587588</v>
+        <v>5.03146267551747</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>6.900955386835804</v>
+        <v>6.135570615028795</v>
       </c>
       <c r="E17">
-        <v>19.41797851724328</v>
+        <v>37.7059784616729</v>
       </c>
       <c r="F17">
-        <v>41.54716159417332</v>
+        <v>55.34247249864196</v>
       </c>
       <c r="G17">
-        <v>3.649028308842142</v>
+        <v>1.992759959729423</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>24.07979244531262</v>
+        <v>23.27860417801319</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>17.16768750111224</v>
+        <v>28.63762409585511</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.45879330924845</v>
+        <v>5.007101055980018</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>6.89538497198038</v>
+        <v>6.101282966750416</v>
       </c>
       <c r="E18">
-        <v>19.17441720988512</v>
+        <v>37.10881897928014</v>
       </c>
       <c r="F18">
-        <v>41.35136550099159</v>
+        <v>54.62545339659493</v>
       </c>
       <c r="G18">
-        <v>3.650143997596684</v>
+        <v>1.99706764217863</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>24.04771517433131</v>
+        <v>23.1276807236912</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>17.04784208053309</v>
+        <v>28.2144249770994</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.457418565337323</v>
+        <v>4.998723732460546</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>6.893513313163408</v>
+        <v>6.089830682152777</v>
       </c>
       <c r="E19">
-        <v>19.0912904385633</v>
+        <v>36.90650625273503</v>
       </c>
       <c r="F19">
-        <v>41.28505184758232</v>
+        <v>54.38271280566755</v>
       </c>
       <c r="G19">
-        <v>3.650524083929211</v>
+        <v>1.998521597469157</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>24.03689210066756</v>
+        <v>23.07686879460829</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>17.00717886474928</v>
+        <v>28.07075757505264</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.46368973364733</v>
+        <v>5.035909333545864</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>6.901993183165445</v>
+        <v>6.141992891701533</v>
       </c>
       <c r="E20">
-        <v>19.46274251035256</v>
+        <v>37.81645730389153</v>
       </c>
       <c r="F20">
-        <v>41.58338783949183</v>
+        <v>55.47520258531071</v>
       </c>
       <c r="G20">
-        <v>3.648822926927498</v>
+        <v>1.991960398730745</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>24.08574709002179</v>
+        <v>23.30667669332459</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>17.18982642225953</v>
+        <v>28.71577692716378</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.486211180619962</v>
+        <v>5.151291681256954</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>6.931487112761281</v>
+        <v>6.329389300668634</v>
       </c>
       <c r="E21">
-        <v>20.66495403058932</v>
+        <v>40.87649809313359</v>
       </c>
       <c r="F21">
-        <v>42.58343901303962</v>
+        <v>59.25472275224809</v>
       </c>
       <c r="G21">
-        <v>3.643268804075464</v>
+        <v>1.969504915056889</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>24.2524789208376</v>
+        <v>24.10089812640933</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>17.79689037547132</v>
+        <v>30.86206226762408</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.501974189432904</v>
+        <v>5.218773716854386</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>6.951512138919084</v>
+        <v>6.462594817951548</v>
       </c>
       <c r="E22">
-        <v>21.4167238387344</v>
+        <v>42.894332671211</v>
       </c>
       <c r="F22">
-        <v>43.23427880488854</v>
+        <v>61.80979255289394</v>
       </c>
       <c r="G22">
-        <v>3.63975833159647</v>
+        <v>1.954393308282278</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>24.36332646942407</v>
+        <v>24.63931475824844</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>18.18799339927259</v>
+        <v>32.25675994626231</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.493468106653324</v>
+        <v>5.183541381759592</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>6.940755784592127</v>
+        <v>6.390394818669298</v>
       </c>
       <c r="E23">
-        <v>21.01858309254999</v>
+        <v>41.81455966797163</v>
       </c>
       <c r="F23">
-        <v>42.88722942174376</v>
+        <v>60.44438153130144</v>
       </c>
       <c r="G23">
-        <v>3.641621064975943</v>
+        <v>1.962508022865832</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>24.30399637043971</v>
+        <v>24.349967550559</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>17.97981546751313</v>
+        <v>31.51256551729713</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.463339797287854</v>
+        <v>5.033901430471531</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>6.901523742261023</v>
+        <v>6.139086460098197</v>
       </c>
       <c r="E24">
-        <v>19.44251701736302</v>
+        <v>37.76651177068601</v>
       </c>
       <c r="F24">
-        <v>41.5670106992529</v>
+        <v>55.41519499470051</v>
       </c>
       <c r="G24">
-        <v>3.648915736307393</v>
+        <v>1.992321966252997</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>24.08305436046597</v>
+        <v>23.29397989190763</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>17.17981920962569</v>
+        <v>28.68045094701924</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.435564323666022</v>
+        <v>4.843262187198937</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>6.862408383266469</v>
+        <v>5.904077803285636</v>
       </c>
       <c r="E25">
-        <v>17.63300241715513</v>
+        <v>33.38311571853734</v>
       </c>
       <c r="F25">
-        <v>40.1378710247814</v>
+        <v>50.17863362254018</v>
       </c>
       <c r="G25">
-        <v>3.657303141046314</v>
+        <v>2.023380187390437</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>23.85310337205034</v>
+        <v>22.22105965424203</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>16.29751028732146</v>
+        <v>25.54616901219154</v>
       </c>
       <c r="L25">
         <v>0</v>
